--- a/back-end/event.xlsx
+++ b/back-end/event.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Family Member Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Event Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>EventID</t>
   </si>
@@ -46,31 +46,28 @@
     <t>RepeatID</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>574467</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>hb</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>11111</t>
+    <t>mmm</t>
+  </si>
+  <si>
+    <t>962359</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ggg</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -448,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -488,7 +485,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -500,22 +497,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>45245.66736111111</v>
+        <v>45231.174305555556</v>
       </c>
       <c r="F2" s="1">
-        <v>45241.29236111111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
+        <v>45245.21666666667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -523,10 +517,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -535,22 +529,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>45237.75069444445</v>
+        <v>45234.174305555556</v>
       </c>
       <c r="F3" s="1">
-        <v>45245.75069444445</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+        <v>45236.64027777778</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -558,10 +549,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -570,225 +561,18 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>45208.75069444445</v>
+        <v>45258.75069444445</v>
       </c>
       <c r="F4" s="1">
-        <v>45240.75069444445</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
+        <v>45260.75069444445</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45272.75069444445</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45273.75069444445</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36777.75069444445</v>
-      </c>
-      <c r="F6" s="1">
-        <v>36777.79305555556</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45259.75069444445</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45260.75069444445</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45280.75069444445</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45267.79305555555</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45273.79375</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45263.79305555555</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45273.25833333333</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45273.256944444445</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10">
         <v>1</v>
       </c>
     </row>

--- a/back-end/event.xlsx
+++ b/back-end/event.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>EventID</t>
   </si>
@@ -46,28 +46,31 @@
     <t>RepeatID</t>
   </si>
   <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>962359</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>fffff</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>ff</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>574467</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>hb</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -485,7 +488,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -497,19 +500,22 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>45231.174305555556</v>
+        <v>45245.66736111111</v>
       </c>
       <c r="F2" s="1">
-        <v>45245.21666666667</v>
+        <v>45241.29236111111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -517,10 +523,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -529,19 +535,22 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>45234.174305555556</v>
+        <v>45237.75069444445</v>
       </c>
       <c r="F3" s="1">
-        <v>45236.64027777778</v>
+        <v>45245.75069444445</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -549,30 +558,237 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45208.75069444445</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45240.75069444445</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45272.75069444445</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45273.75069444445</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>36777.75069444445</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36777.79305555556</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45259.75069444445</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45260.75069444445</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45280.75069444445</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45267.79305555555</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45273.79375</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45263.79305555555</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45258.75069444445</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45260.75069444445</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45273.25833333333</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45273.256944444445</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
